--- a/2sem/LR03/LR03.xlsx
+++ b/2sem/LR03/LR03.xlsx
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>1.8</v>
@@ -464,11 +464,11 @@
         <v>3.8</v>
       </c>
       <c r="J8">
-        <v>0.40056066336575008</v>
+        <v>0.25014567336296534</v>
       </c>
       <c r="K8">
         <f t="array" ref="K8:K10">MMULT(A8:C10,J8:J10)</f>
-        <v>3.8000022179743298</v>
+        <v>3.8000023579838293</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -476,7 +476,7 @@
         <v>2.7</v>
       </c>
       <c r="B9">
-        <v>-3.6</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1.9</v>
@@ -485,10 +485,10 @@
         <v>0.4</v>
       </c>
       <c r="J9">
-        <v>-9.4596633219508439E-2</v>
+        <v>-0.43893748417969508</v>
       </c>
       <c r="K9">
-        <v>0.4000000191160078</v>
+        <v>-1.180174910869745</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -499,16 +499,16 @@
         <v>4.5</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>-1.6</v>
       </c>
       <c r="J10">
-        <v>-0.53792718503249881</v>
+        <v>-0.97661485734197451</v>
       </c>
       <c r="K10">
-        <v>-1.6000035650464088</v>
+        <v>-1.6000001687641798</v>
       </c>
     </row>
   </sheetData>
